--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.2.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,6 +42,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="311">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -345,7 +346,7 @@
     <t xml:space="preserve">If the store have only 1 specific template for Coke Cooler, the KPI will get the point if all the KPIs for "Option 1" passed. If the store have only 1 specific Coke cooler KPI will get the points if "Opcion 2" KPI passed. If the store have the 2 different type of Coke Cooler KPI will pass only if all KPIs fro Opcion 1 and 2 passed </t>
   </si>
   <si>
-    <t xml:space="preserve">Enfriador Rojo – Acomodo</t>
+    <t xml:space="preserve">Enfriador Rojo - Acomodo</t>
   </si>
   <si>
     <r>
@@ -719,7 +720,7 @@
     <t xml:space="preserve">¿La división de frentes de KO entre la suma de frentes KO, competencia e invasión es mayor que 75%?</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of empty</t>
+    <t xml:space="preserve">Share of Empty</t>
   </si>
   <si>
     <t xml:space="preserve">Share of Empty is lower than 25% in the Coke Coolers (per scene if we have multiple coke coolers)- ignore staking </t>
@@ -1086,9 +1087,6 @@
   </si>
   <si>
     <t xml:space="preserve">Enfriador Rojo - Frutales,Categorizador - Frutales (Detalle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfriador Rojo - Acomodo</t>
   </si>
   <si>
     <t xml:space="preserve">B. Colas SS,B. Colas MS,B. Frutales SS,B. Frutales MS,B. NCB's SS,B. NCB's MS,B. Agua</t>
@@ -1324,9 +1322,6 @@
   </si>
   <si>
     <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of Empty</t>
   </si>
   <si>
     <t xml:space="preserve">Empty</t>
@@ -2108,15 +2103,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2124,12 +2119,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="108.19028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -2167,7 +2162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="7" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2194,7 +2189,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2220,7 +2215,7 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -2246,7 +2241,7 @@
       </c>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="128" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -2272,7 +2267,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -2298,7 +2293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -2324,7 +2319,7 @@
       </c>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -2350,7 +2345,7 @@
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -2376,7 +2371,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -2406,7 +2401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -2436,7 +2431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
@@ -2462,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>65</v>
       </c>
@@ -2488,7 +2483,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
@@ -2514,7 +2509,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
@@ -2538,7 +2533,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
@@ -2562,7 +2557,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
@@ -2586,7 +2581,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
@@ -2610,7 +2605,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
@@ -2634,7 +2629,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
@@ -2658,7 +2653,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
@@ -2684,7 +2679,7 @@
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -2706,7 +2701,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -2732,7 +2727,7 @@
       </c>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -2760,7 +2755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>21</v>
       </c>
@@ -2788,7 +2783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>22</v>
       </c>
@@ -2814,7 +2809,7 @@
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -2840,7 +2835,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -2862,7 +2857,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>24</v>
       </c>
@@ -2888,7 +2883,7 @@
       </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>25</v>
       </c>
@@ -2914,7 +2909,7 @@
       </c>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>26</v>
       </c>
@@ -2940,7 +2935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -2966,7 +2961,7 @@
       </c>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -2992,7 +2987,7 @@
       </c>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -3014,7 +3009,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>29</v>
       </c>
@@ -3040,7 +3035,7 @@
       </c>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="64" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>30</v>
       </c>
@@ -3066,7 +3061,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>31</v>
       </c>
@@ -3096,7 +3091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="n">
         <v>32</v>
       </c>
@@ -3118,7 +3113,7 @@
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3148,7 +3143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
         <v>112</v>
@@ -3164,7 +3159,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>34</v>
       </c>
@@ -3194,7 +3189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
         <v>118</v>
@@ -3210,7 +3205,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>35</v>
       </c>
@@ -3240,7 +3235,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
         <v>121</v>
@@ -3256,7 +3251,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>36</v>
       </c>
@@ -3286,7 +3281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="15" t="s">
         <v>125</v>
@@ -3302,7 +3297,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>37</v>
       </c>
@@ -3332,7 +3327,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="36.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>130</v>
       </c>
@@ -3350,7 +3345,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>38</v>
       </c>
@@ -3380,7 +3375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>39</v>
       </c>
@@ -3402,7 +3397,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>40</v>
       </c>
@@ -3426,7 +3421,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>40</v>
       </c>
@@ -3450,7 +3445,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>41</v>
       </c>
@@ -3476,7 +3471,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
     </row>
-    <row r="54" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>42</v>
       </c>
@@ -3502,7 +3497,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
     </row>
-    <row r="55" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>43</v>
       </c>
@@ -3528,7 +3523,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>44</v>
       </c>
@@ -3554,7 +3549,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>45</v>
       </c>
@@ -3578,7 +3573,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>45</v>
       </c>
@@ -3602,7 +3597,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>46</v>
       </c>
@@ -3628,7 +3623,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
     </row>
-    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>47</v>
       </c>
@@ -3654,7 +3649,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
     </row>
-    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>48</v>
       </c>
@@ -3680,7 +3675,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
     </row>
-    <row r="62" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>49</v>
       </c>
@@ -3706,7 +3701,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="48" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>50</v>
       </c>
@@ -3732,7 +3727,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
     </row>
-    <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>51</v>
       </c>
@@ -3758,7 +3753,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="19"/>
     </row>
-    <row r="65" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>52</v>
       </c>
@@ -3784,7 +3779,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
     </row>
-    <row r="66" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>53</v>
       </c>
@@ -3810,7 +3805,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="19"/>
     </row>
-    <row r="67" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>54</v>
       </c>
@@ -3836,7 +3831,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19"/>
     </row>
-    <row r="68" s="21" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="21" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>55</v>
       </c>
@@ -3858,7 +3853,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>56</v>
       </c>
@@ -3888,7 +3883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>57</v>
       </c>
@@ -3918,7 +3913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>58</v>
       </c>
@@ -3940,7 +3935,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>59</v>
       </c>
@@ -3960,7 +3955,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>60</v>
       </c>
@@ -3984,7 +3979,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" s="26" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" s="26" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>61</v>
       </c>
@@ -4010,7 +4005,7 @@
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>62</v>
       </c>
@@ -4036,7 +4031,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="19"/>
     </row>
-    <row r="76" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>63</v>
       </c>
@@ -4062,7 +4057,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
     </row>
-    <row r="77" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="32" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>64</v>
       </c>
@@ -4089,7 +4084,13 @@
       <c r="J77" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J77"/>
+  <autoFilter ref="A1:J77">
+    <filterColumn colId="6">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Share of empty"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="H14:H20"/>
   </mergeCells>
@@ -4118,11 +4119,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4143,16 +4144,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="H1" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>285</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>286</v>
       </c>
       <c r="J1" s="82" t="s">
         <v>8</v>
@@ -4207,7 +4208,7 @@
         <v>134</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="86"/>
       <c r="H3" s="83"/>
@@ -4233,7 +4234,7 @@
         <v>134</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G4" s="86"/>
       <c r="H4" s="83"/>
@@ -4259,7 +4260,7 @@
         <v>134</v>
       </c>
       <c r="F5" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G5" s="90"/>
       <c r="H5" s="90"/>
@@ -4285,7 +4286,7 @@
         <v>134</v>
       </c>
       <c r="F6" s="84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G6" s="84"/>
       <c r="H6" s="84"/>
@@ -4319,17 +4320,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="60" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="60" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="60" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="60" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="60" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="60" width="60.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="60" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="60" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="60" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="60" width="82.9109311740891"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="60" width="60.7368421052632"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="60" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="60" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="60" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="60" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="60" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="60" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="60" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="60" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="60" width="11.6761133603239"/>
@@ -4350,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -4377,13 +4378,13 @@
         <v>185</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>186</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -4415,7 +4416,7 @@
         <v>113</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>208</v>
@@ -4427,7 +4428,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N2" s="91"/>
       <c r="O2" s="3" t="s">
@@ -4462,7 +4463,7 @@
         <v>119</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>208</v>
@@ -4474,7 +4475,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N3" s="91"/>
       <c r="O3" s="3" t="s">
@@ -4509,10 +4510,10 @@
         <v>122</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="3" t="s">
@@ -4521,7 +4522,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N4" s="91"/>
       <c r="O4" s="3" t="s">
@@ -4556,10 +4557,10 @@
         <v>126</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
@@ -4568,7 +4569,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N5" s="91"/>
       <c r="O5" s="3" t="s">
@@ -4603,10 +4604,10 @@
         <v>129</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="3" t="s">
@@ -4615,7 +4616,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N6" s="91"/>
       <c r="O6" s="3" t="s">
@@ -4648,7 +4649,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4656,14 +4657,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4684,22 +4685,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -4729,10 +4730,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -4761,10 +4762,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -4792,10 +4793,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -4825,13 +4826,13 @@
         <v>13</v>
       </c>
       <c r="G5" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="J5" s="10" t="n">
         <v>1</v>
@@ -4864,10 +4865,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4893,13 +4894,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>1</v>
@@ -4930,10 +4931,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -4959,10 +4960,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4988,10 +4989,10 @@
         <v>13</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H10" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -5017,10 +5018,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -5044,10 +5045,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" s="95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I12" s="95"/>
       <c r="J12" s="95"/>
@@ -5073,8 +5074,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5144,7 +5145,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>204</v>
@@ -5156,7 +5157,7 @@
         <v>187</v>
       </c>
       <c r="H2" s="85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I2" s="85"/>
       <c r="J2" s="86"/>
@@ -5170,7 +5171,7 @@
         <v>196</v>
       </c>
       <c r="N2" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O2" s="84" t="s">
         <v>42</v>
@@ -5204,14 +5205,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5348,21 +5349,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="71.1255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -5787,14 +5788,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -5918,17 +5919,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.9838056680162"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="95.2267206477733"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6128,7 +6129,7 @@
         <v>65</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="C9" s="59" t="s">
         <v>51</v>
@@ -6140,7 +6141,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>19</v>
@@ -6189,14 +6190,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="60" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="64.5910931174089"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="68.663967611336"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="60" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="60" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="60" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="60" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="60" width="87.9433198380567"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="60" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="60" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="60" width="13.3886639676113"/>
@@ -6230,13 +6231,13 @@
         <v>193</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>211</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>225</v>
@@ -6271,13 +6272,13 @@
         <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" s="61" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F2" s="63" t="s">
         <v>56</v>
@@ -6286,7 +6287,7 @@
         <v>194</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I2" s="64" t="s">
         <v>212</v>
@@ -6319,16 +6320,16 @@
         <v>55</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="63" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>212</v>
@@ -6361,16 +6362,16 @@
         <v>55</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>194</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>118</v>
@@ -6403,16 +6404,16 @@
         <v>55</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>194</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>118</v>
@@ -6445,19 +6446,19 @@
         <v>55</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6" s="63" t="s">
         <v>194</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="64"/>
@@ -6487,19 +6488,19 @@
         <v>55</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="63" t="s">
         <v>194</v>
       </c>
       <c r="H7" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="64" t="s">
         <v>239</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>240</v>
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -6529,10 +6530,10 @@
         <v>55</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G8" s="63" t="s">
         <v>194</v>
@@ -6563,13 +6564,13 @@
         <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>71</v>
@@ -6579,7 +6580,7 @@
       </c>
       <c r="H9" s="0"/>
       <c r="I9" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>213</v>
@@ -6611,7 +6612,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" s="53" t="s">
         <v>71</v>
@@ -6651,7 +6652,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="53" t="s">
         <v>71</v>
@@ -6661,7 +6662,7 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
@@ -6702,20 +6703,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -6733,7 +6734,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -6754,19 +6755,19 @@
         <v>187</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>225</v>
@@ -6775,13 +6776,13 @@
         <v>185</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>186</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>8</v>
@@ -6805,26 +6806,26 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="71" t="s">
         <v>254</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>255</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="37" t="s">
         <v>257</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>258</v>
       </c>
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
@@ -6856,35 +6857,35 @@
         <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="71" t="s">
         <v>259</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>260</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="72" t="s">
         <v>261</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>262</v>
       </c>
       <c r="L3" s="72"/>
       <c r="M3" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="N3" s="73" t="s">
         <v>263</v>
-      </c>
-      <c r="N3" s="73" t="s">
-        <v>264</v>
       </c>
       <c r="O3" s="73" t="s">
         <v>192</v>
@@ -6929,19 +6930,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0647773279352"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="57.8461538461538"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -6969,10 +6970,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>225</v>
@@ -6981,13 +6982,13 @@
         <v>185</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>186</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O1" s="28" t="s">
         <v>8</v>
@@ -7010,26 +7011,26 @@
         <v>17</v>
       </c>
       <c r="E2" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="G2" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="H2" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="I2" s="76" t="s">
         <v>269</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>270</v>
       </c>
       <c r="J2" s="76"/>
       <c r="K2" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>19</v>
@@ -7049,16 +7050,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="74" t="s">
-        <v>267</v>
-      </c>
       <c r="G3" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="76" t="s">
         <v>272</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>273</v>
       </c>
       <c r="I3" s="76" t="n">
         <v>2</v>
@@ -7068,7 +7069,7 @@
         <v>195</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>19</v>
@@ -7088,26 +7089,26 @@
         <v>17</v>
       </c>
       <c r="E4" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="74" t="s">
-        <v>267</v>
-      </c>
       <c r="G4" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="I4" s="76" t="s">
         <v>275</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>276</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="10" t="s">
         <v>195</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>19</v>
@@ -7138,10 +7139,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7156,10 +7157,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,7 +7174,7 @@
         <v>140</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -7190,7 +7191,7 @@
         <v>145</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -7207,7 +7208,7 @@
         <v>148</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -7224,7 +7225,7 @@
         <v>151</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -7241,7 +7242,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1</v>
@@ -7258,7 +7259,7 @@
         <v>158</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -7275,7 +7276,7 @@
         <v>159</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -7292,7 +7293,7 @@
         <v>160</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -7309,7 +7310,7 @@
         <v>163</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -7326,7 +7327,7 @@
         <v>164</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -7343,7 +7344,7 @@
         <v>165</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -7360,7 +7361,7 @@
         <v>166</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -7377,7 +7378,7 @@
         <v>175</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
@@ -7394,7 +7395,7 @@
         <v>176</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
@@ -7411,7 +7412,7 @@
         <v>177</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
@@ -7428,7 +7429,7 @@
         <v>178</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
@@ -7445,7 +7446,7 @@
         <v>132</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
